--- a/Team-Data/2013-14/2-5-2013-14.xlsx
+++ b/Team-Data/2013-14/2-5-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>0.521</v>
+        <v>0.532</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -687,43 +754,43 @@
         <v>82.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L2" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O2" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P2" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="V2" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W2" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>4.4</v>
@@ -735,16 +802,16 @@
         <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB2" t="n">
         <v>102.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -762,31 +829,31 @@
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>4</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS2" t="n">
         <v>18</v>
@@ -804,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY2" t="n">
         <v>14</v>
@@ -813,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
         <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>0.34</v>
+        <v>0.327</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J3" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L3" t="n">
         <v>6.3</v>
@@ -878,37 +945,37 @@
         <v>19.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.327</v>
+        <v>0.325</v>
       </c>
       <c r="O3" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="P3" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>11.4</v>
       </c>
       <c r="S3" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U3" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
@@ -917,31 +984,31 @@
         <v>21.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.9</v>
+        <v>-4.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
         <v>14</v>
@@ -968,28 +1035,28 @@
         <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS3" t="n">
         <v>19</v>
       </c>
       <c r="AT3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV3" t="n">
         <v>26</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>25</v>
       </c>
       <c r="AW3" t="n">
         <v>23</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-2.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
         <v>18</v>
@@ -1129,16 +1196,16 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
         <v>6</v>
@@ -1147,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR4" t="n">
         <v>27</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1171,10 +1238,10 @@
         <v>24</v>
       </c>
       <c r="AY4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA4" t="n">
         <v>10</v>
@@ -1183,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
@@ -1335,7 +1402,7 @@
         <v>28</v>
       </c>
       <c r="AS5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT5" t="n">
         <v>23</v>
@@ -1344,13 +1411,13 @@
         <v>22</v>
       </c>
       <c r="AV5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="n">
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>-0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
@@ -1544,7 +1611,7 @@
         <v>7</v>
       </c>
       <c r="BB6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" t="n">
-        <v>0.327</v>
+        <v>0.333</v>
       </c>
       <c r="H7" t="n">
         <v>48.8</v>
@@ -1594,100 +1661,100 @@
         <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>85.8</v>
+        <v>85.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351</v>
+        <v>0.357</v>
       </c>
       <c r="O7" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="Q7" t="n">
         <v>0.741</v>
       </c>
       <c r="R7" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="S7" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T7" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U7" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V7" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z7" t="n">
         <v>20.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.2</v>
+        <v>96</v>
       </c>
       <c r="AC7" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
         <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
         <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1696,34 +1763,34 @@
         <v>22</v>
       </c>
       <c r="AR7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS7" t="n">
         <v>21</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU7" t="n">
         <v>28</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY7" t="n">
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
         <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>0.58</v>
+        <v>0.571</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,52 +1843,52 @@
         <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L8" t="n">
         <v>8.4</v>
       </c>
       <c r="M8" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O8" t="n">
         <v>17.1</v>
       </c>
       <c r="P8" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.798</v>
+        <v>0.8</v>
       </c>
       <c r="R8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T8" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V8" t="n">
         <v>13.7</v>
       </c>
       <c r="W8" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z8" t="n">
         <v>20.5</v>
@@ -1830,16 +1897,16 @@
         <v>19.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1857,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1866,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>18</v>
@@ -1887,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>5</v>
@@ -1896,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
@@ -1905,7 +1972,7 @@
         <v>16</v>
       </c>
       <c r="BA8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
         <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
@@ -1964,13 +2031,13 @@
         <v>0.452</v>
       </c>
       <c r="L9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M9" t="n">
         <v>22.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O9" t="n">
         <v>19</v>
@@ -1979,7 +2046,7 @@
         <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.731</v>
+        <v>0.728</v>
       </c>
       <c r="R9" t="n">
         <v>12.1</v>
@@ -1988,46 +2055,46 @@
         <v>33.6</v>
       </c>
       <c r="T9" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="U9" t="n">
         <v>22.4</v>
       </c>
       <c r="V9" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y9" t="n">
         <v>5.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA9" t="n">
         <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>104</v>
+        <v>103.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD9" t="n">
         <v>29</v>
       </c>
       <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
         <v>14</v>
       </c>
-      <c r="AF9" t="n">
-        <v>12</v>
-      </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
@@ -2039,13 +2106,13 @@
         <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
         <v>10</v>
       </c>
       <c r="AM9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN9" t="n">
         <v>14</v>
@@ -2054,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2063,22 +2130,22 @@
         <v>6</v>
       </c>
       <c r="AS9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW9" t="n">
         <v>22</v>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>22</v>
@@ -2090,7 +2157,7 @@
         <v>8</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC9" t="n">
         <v>14</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" t="n">
-        <v>0.396</v>
+        <v>0.404</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2149,28 +2216,28 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N10" t="n">
         <v>0.306</v>
       </c>
       <c r="O10" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P10" t="n">
         <v>26.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.664</v>
+        <v>0.665</v>
       </c>
       <c r="R10" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U10" t="n">
         <v>20.3</v>
@@ -2182,7 +2249,7 @@
         <v>8.9</v>
       </c>
       <c r="X10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y10" t="n">
         <v>4.7</v>
@@ -2197,16 +2264,16 @@
         <v>99.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -2218,7 +2285,7 @@
         <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK10" t="n">
         <v>18</v>
@@ -2236,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2245,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT10" t="n">
         <v>7</v>
       </c>
       <c r="AU10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV10" t="n">
         <v>24</v>
@@ -2266,16 +2333,16 @@
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>12</v>
       </c>
       <c r="BB10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>4.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2403,10 +2470,10 @@
         <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2424,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="n">
         <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.66</v>
+        <v>0.653</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,37 +2571,37 @@
         <v>37.3</v>
       </c>
       <c r="J12" t="n">
-        <v>78.90000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L12" t="n">
         <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.343</v>
       </c>
       <c r="O12" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="P12" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="R12" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S12" t="n">
         <v>33.9</v>
       </c>
       <c r="T12" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U12" t="n">
         <v>20.3</v>
@@ -2546,25 +2613,25 @@
         <v>7.3</v>
       </c>
       <c r="X12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
         <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.4</v>
+        <v>105.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2573,10 +2640,10 @@
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>18</v>
@@ -2588,13 +2655,13 @@
         <v>5</v>
       </c>
       <c r="AL12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2606,7 +2673,7 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2615,7 +2682,7 @@
         <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2624,13 +2691,13 @@
         <v>20</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>20</v>
@@ -2773,10 +2840,10 @@
         <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
         <v>12</v>
@@ -2788,7 +2855,7 @@
         <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS13" t="n">
         <v>1</v>
@@ -2797,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="AU13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>21</v>
@@ -2812,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="AZ13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -2850,61 +2917,61 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" t="n">
         <v>34</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.654</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L14" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O14" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R14" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S14" t="n">
         <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U14" t="n">
         <v>23.9</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W14" t="n">
         <v>8.300000000000001</v>
@@ -2913,34 +2980,34 @@
         <v>4.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z14" t="n">
         <v>21.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF14" t="n">
         <v>6</v>
       </c>
-      <c r="AF14" t="n">
-        <v>7</v>
-      </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
         <v>10</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
@@ -2970,25 +3037,25 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS14" t="n">
         <v>14</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW14" t="n">
         <v>9</v>
       </c>
       <c r="AX14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -3032,37 +3099,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
         <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>0.347</v>
+        <v>0.333</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L15" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="M15" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.372</v>
+        <v>0.369</v>
       </c>
       <c r="O15" t="n">
         <v>17.5</v>
@@ -3074,16 +3141,16 @@
         <v>0.76</v>
       </c>
       <c r="R15" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S15" t="n">
         <v>32.8</v>
       </c>
       <c r="T15" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U15" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V15" t="n">
         <v>15.1</v>
@@ -3092,25 +3159,25 @@
         <v>6.5</v>
       </c>
       <c r="X15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
         <v>20.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.3</v>
+        <v>-5.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3122,7 +3189,7 @@
         <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>19</v>
@@ -3131,16 +3198,16 @@
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>4</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
         <v>16</v>
@@ -3149,7 +3216,7 @@
         <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
         <v>24</v>
@@ -3158,13 +3225,13 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3173,13 +3240,13 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="n">
         <v>26</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>0.542</v>
+        <v>0.553</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,10 +3299,10 @@
         <v>37.6</v>
       </c>
       <c r="J16" t="n">
-        <v>82.2</v>
+        <v>82.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
@@ -3247,10 +3314,10 @@
         <v>0.35</v>
       </c>
       <c r="O16" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P16" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q16" t="n">
         <v>0.747</v>
@@ -3259,16 +3326,16 @@
         <v>11.9</v>
       </c>
       <c r="S16" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U16" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V16" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W16" t="n">
         <v>7.4</v>
@@ -3280,7 +3347,7 @@
         <v>5.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA16" t="n">
         <v>19</v>
@@ -3289,16 +3356,16 @@
         <v>95.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -3310,10 +3377,10 @@
         <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3334,25 +3401,25 @@
         <v>21</v>
       </c>
       <c r="AR16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS16" t="n">
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" t="n">
         <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>0.729</v>
+        <v>0.723</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3420,61 +3487,61 @@
         <v>0.509</v>
       </c>
       <c r="L17" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O17" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P17" t="n">
         <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R17" t="n">
         <v>7.4</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T17" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="U17" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="V17" t="n">
         <v>15.3</v>
       </c>
       <c r="W17" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X17" t="n">
         <v>4.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.3</v>
+        <v>104.1</v>
       </c>
       <c r="AC17" t="n">
         <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3498,13 +3565,13 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>14</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
         <v>20</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" t="n">
-        <v>0.184</v>
+        <v>0.188</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
@@ -3596,37 +3663,37 @@
         <v>34.9</v>
       </c>
       <c r="J18" t="n">
-        <v>82.90000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="L18" t="n">
         <v>7.3</v>
       </c>
       <c r="M18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O18" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R18" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S18" t="n">
         <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
         <v>20.8</v>
@@ -3641,22 +3708,22 @@
         <v>5.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>92.2</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
@@ -3695,10 +3762,10 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS18" t="n">
         <v>29</v>
@@ -3707,7 +3774,7 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>23</v>
@@ -3728,7 +3795,7 @@
         <v>18</v>
       </c>
       <c r="BB18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,49 +3845,49 @@
         <v>38.6</v>
       </c>
       <c r="J19" t="n">
-        <v>88.09999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
         <v>7.6</v>
       </c>
       <c r="M19" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O19" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P19" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R19" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S19" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T19" t="n">
-        <v>45.8</v>
+        <v>46</v>
       </c>
       <c r="U19" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V19" t="n">
         <v>13.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y19" t="n">
         <v>5.7</v>
@@ -3832,31 +3899,31 @@
         <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.8</v>
+        <v>106</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3868,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3883,13 +3950,13 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.438</v>
+        <v>0.426</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3969,7 +4036,7 @@
         <v>5.9</v>
       </c>
       <c r="M20" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N20" t="n">
         <v>0.379</v>
@@ -3981,49 +4048,49 @@
         <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="R20" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S20" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W20" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X20" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y20" t="n">
         <v>6.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA20" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE20" t="n">
         <v>20</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
@@ -4035,7 +4102,7 @@
         <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -4056,25 +4123,25 @@
         <v>15</v>
       </c>
       <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT20" t="n">
         <v>18</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AU20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV20" t="n">
         <v>8</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>10</v>
@@ -4086,13 +4153,13 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA20" t="n">
         <v>19</v>
       </c>
       <c r="BB20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="n">
-        <v>0.388</v>
+        <v>0.396</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4142,19 +4209,19 @@
         <v>36.5</v>
       </c>
       <c r="J21" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L21" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O21" t="n">
         <v>14.9</v>
@@ -4163,19 +4230,19 @@
         <v>19.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
         <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V21" t="n">
         <v>12.8</v>
@@ -4187,22 +4254,22 @@
         <v>4.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z21" t="n">
         <v>22.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC21" t="n">
         <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4223,16 +4290,16 @@
         <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM21" t="n">
         <v>7</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4247,7 +4314,7 @@
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
@@ -4256,13 +4323,13 @@
         <v>25</v>
       </c>
       <c r="AV21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW21" t="n">
         <v>14</v>
       </c>
       <c r="AX21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY21" t="n">
         <v>5</v>
@@ -4271,13 +4338,13 @@
         <v>25</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB21" t="n">
         <v>22</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="n">
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.784</v>
+        <v>0.78</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J22" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.474</v>
@@ -4333,31 +4400,31 @@
         <v>7.2</v>
       </c>
       <c r="M22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O22" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="P22" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="R22" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="T22" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="U22" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
@@ -4375,7 +4442,7 @@
         <v>21.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB22" t="n">
         <v>105</v>
@@ -4396,25 +4463,25 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
         <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL22" t="n">
         <v>18</v>
       </c>
       <c r="AM22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4426,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4435,7 +4502,7 @@
         <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
         <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>0.275</v>
+        <v>0.26</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J23" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L23" t="n">
         <v>7.1</v>
@@ -4518,28 +4585,28 @@
         <v>20.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O23" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P23" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.761</v>
+        <v>0.758</v>
       </c>
       <c r="R23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
         <v>33</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
         <v>15</v>
@@ -4548,7 +4615,7 @@
         <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y23" t="n">
         <v>5.9</v>
@@ -4560,10 +4627,10 @@
         <v>18.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
@@ -4581,34 +4648,34 @@
         <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
         <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP23" t="n">
         <v>23</v>
       </c>
-      <c r="AO23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
         <v>9</v>
@@ -4617,16 +4684,16 @@
         <v>22</v>
       </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3</v>
+        <v>0.306</v>
       </c>
       <c r="H24" t="n">
         <v>48.7</v>
       </c>
       <c r="I24" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J24" t="n">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.44</v>
@@ -4706,13 +4773,13 @@
         <v>16.7</v>
       </c>
       <c r="P24" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.715</v>
+        <v>0.712</v>
       </c>
       <c r="R24" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S24" t="n">
         <v>32.8</v>
@@ -4721,7 +4788,7 @@
         <v>44.6</v>
       </c>
       <c r="U24" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V24" t="n">
         <v>17.4</v>
@@ -4730,25 +4797,25 @@
         <v>9</v>
       </c>
       <c r="X24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y24" t="n">
         <v>7.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="AC24" t="n">
         <v>-8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4766,16 +4833,16 @@
         <v>7</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN24" t="n">
         <v>29</v>
@@ -4790,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS24" t="n">
         <v>12</v>
@@ -4799,7 +4866,7 @@
         <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="AX24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" t="n">
-        <v>0.592</v>
+        <v>0.604</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J25" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K25" t="n">
         <v>0.457</v>
@@ -4879,16 +4946,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.366</v>
+        <v>0.369</v>
       </c>
       <c r="O25" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P25" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q25" t="n">
         <v>0.76</v>
@@ -4897,19 +4964,19 @@
         <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U25" t="n">
         <v>19.1</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W25" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
@@ -4918,19 +4985,19 @@
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB25" t="n">
         <v>104.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
@@ -4942,25 +5009,25 @@
         <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>8</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>9</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
@@ -4969,7 +5036,7 @@
         <v>11</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -4978,13 +5045,13 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU25" t="n">
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" t="n">
         <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.714</v>
+        <v>0.708</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="J26" t="n">
-        <v>87.90000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L26" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M26" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="N26" t="n">
         <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.82</v>
+        <v>0.821</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T26" t="n">
-        <v>46.5</v>
+        <v>46.4</v>
       </c>
       <c r="U26" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="V26" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W26" t="n">
         <v>5.6</v>
@@ -5100,19 +5167,19 @@
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.7</v>
+        <v>108</v>
       </c>
       <c r="AC26" t="n">
         <v>4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
@@ -5133,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5145,10 +5212,10 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5157,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" t="n">
         <v>32</v>
       </c>
       <c r="G27" t="n">
-        <v>0.347</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J27" t="n">
         <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L27" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M27" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="N27" t="n">
         <v>0.344</v>
       </c>
       <c r="O27" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="P27" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S27" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T27" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U27" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W27" t="n">
         <v>7.4</v>
@@ -5282,19 +5349,19 @@
         <v>5.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5315,13 +5382,13 @@
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
@@ -5330,28 +5397,28 @@
         <v>4</v>
       </c>
       <c r="AP27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS27" t="n">
         <v>17</v>
       </c>
       <c r="AT27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU27" t="n">
         <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" t="n">
         <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.735</v>
+        <v>0.729</v>
       </c>
       <c r="H28" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="I28" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="J28" t="n">
-        <v>82.40000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.491</v>
@@ -5425,16 +5492,16 @@
         <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.394</v>
+        <v>0.397</v>
       </c>
       <c r="O28" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P28" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="Q28" t="n">
         <v>0.768</v>
@@ -5443,16 +5510,16 @@
         <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="T28" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U28" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
@@ -5461,22 +5528,22 @@
         <v>5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.2</v>
+        <v>103.7</v>
       </c>
       <c r="AC28" t="n">
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,13 +5555,13 @@
         <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5503,7 +5570,7 @@
         <v>12</v>
       </c>
       <c r="AM28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5518,25 +5585,25 @@
         <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW28" t="n">
         <v>16</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
@@ -5548,7 +5615,7 @@
         <v>25</v>
       </c>
       <c r="BB28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" t="n">
         <v>26</v>
       </c>
       <c r="F29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>0.531</v>
+        <v>0.542</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
@@ -5598,7 +5665,7 @@
         <v>36.1</v>
       </c>
       <c r="J29" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.438</v>
@@ -5607,10 +5674,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O29" t="n">
         <v>18.7</v>
@@ -5625,16 +5692,16 @@
         <v>12</v>
       </c>
       <c r="S29" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T29" t="n">
         <v>43.5</v>
       </c>
       <c r="U29" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V29" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
@@ -5646,19 +5713,19 @@
         <v>4.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB29" t="n">
         <v>99.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5673,7 +5740,7 @@
         <v>10</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
         <v>19</v>
@@ -5685,13 +5752,13 @@
         <v>9</v>
       </c>
       <c r="AM29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN29" t="n">
         <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP29" t="n">
         <v>10</v>
@@ -5706,7 +5773,7 @@
         <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU29" t="n">
         <v>17</v>
@@ -5724,7 +5791,7 @@
         <v>15</v>
       </c>
       <c r="AZ29" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>-6.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
         <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5870,19 +5937,19 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>23</v>
       </c>
       <c r="AP30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR30" t="n">
         <v>18</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>17</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5891,7 +5958,7 @@
         <v>24</v>
       </c>
       <c r="AU30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV30" t="n">
         <v>13</v>
@@ -5900,13 +5967,13 @@
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA30" t="n">
         <v>15</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
@@ -5944,61 +6011,61 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" t="n">
         <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.511</v>
       </c>
       <c r="H31" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="I31" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J31" t="n">
-        <v>84.59999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L31" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="P31" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R31" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
         <v>32.1</v>
       </c>
       <c r="T31" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U31" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V31" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W31" t="n">
         <v>8.6</v>
@@ -6007,40 +6074,40 @@
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -6049,10 +6116,10 @@
         <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -6070,13 +6137,13 @@
         <v>15</v>
       </c>
       <c r="AT31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
         <v>7</v>
@@ -6085,13 +6152,13 @@
         <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-5-2013-14</t>
+          <t>2014-02-05</t>
         </is>
       </c>
     </row>
